--- a/tests/db_files/db_alias.xlsx
+++ b/tests/db_files/db_alias.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.borbely\code\git\msl-equipment\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.borbely\code\git\msl-equipment\tests\db_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="0" windowWidth="18255" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="15120" yWindow="0" windowWidth="18255" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -948,9 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,9 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
